--- a/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>ANEB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,31 +665,32 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +709,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +741,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +773,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,17 +821,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +883,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +915,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +947,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,16 +960,17 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+      <c r="E17" s="3">
+        <v>600</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -963,16 +990,19 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>-600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1022,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,16 +1038,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1068,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,16 +1100,19 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1092,16 +1132,19 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
+      <c r="E23" s="3">
+        <v>-600</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1121,8 +1164,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1196,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,16 +1228,19 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+      <c r="E26" s="3">
+        <v>-600</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1208,17 +1260,20 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1292,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1324,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1356,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,16 +1420,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1382,17 +1452,20 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1484,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,17 +1516,20 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,22 +1548,25 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1585,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,17 +1615,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1645,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,8 +1677,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1616,8 +1709,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,16 +1741,19 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1674,17 +1773,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2500</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,8 +1805,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,8 +1837,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1761,8 +1869,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +1901,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,17 +1965,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1997,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,17 +2029,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2600</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2061,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,16 +2091,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+      <c r="E57" s="3">
+        <v>100</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1990,17 +2121,20 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,17 +2153,20 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,17 +2185,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,8 +2217,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2106,37 +2249,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>10500</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,17 +2377,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2409,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2487,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2331,7 +2499,7 @@
         <v>3000</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2351,8 +2519,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,17 +2551,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-800</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2583,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,17 +2679,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2711,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,22 +2743,25 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,17 +2780,20 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2812,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +2828,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,8 +2858,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,17 +3018,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3050,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3066,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2875,8 +3096,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,8 +3160,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2962,8 +3192,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3208,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,8 +3334,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3120,8 +3366,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,17 +3398,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3428,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>ANEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,40 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,8 +714,14 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,8 +752,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,8 +790,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,8 +828,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,23 +848,25 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -854,8 +882,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,8 +920,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,8 +958,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,8 +996,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,23 +1013,25 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,8 +1047,14 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1002,13 +1062,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="G18" s="3">
+        <v>-600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1025,8 +1085,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,8 +1105,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1048,13 +1116,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>-26600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1071,16 +1139,22 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-29100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1103,22 +1177,28 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1135,23 +1215,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,8 +1253,14 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1199,8 +1291,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,23 +1329,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,23 +1367,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,8 +1405,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1443,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,8 +1481,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1519,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,8 +1557,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1432,13 +1572,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>26600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1455,23 +1595,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1633,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,23 +1671,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,28 +1709,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1752,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1772,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,23 +1788,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,8 +1822,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1680,8 +1860,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1712,8 +1898,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1744,22 +1936,28 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1776,23 +1974,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F46" s="3">
         <v>3900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2500</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +2012,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1840,8 +2050,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1872,8 +2088,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1904,8 +2126,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2164,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,23 +2202,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,8 +2240,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,23 +2278,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2316,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2336,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,22 +2352,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2124,23 +2386,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2156,22 +2424,28 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2188,23 +2462,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2220,8 +2500,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2252,20 +2538,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
         <v>10500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,14 +2570,20 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2614,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2652,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,23 +2690,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
         <v>10800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2728,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2748,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2782,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,23 +2820,29 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>3000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>3000</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2522,8 +2858,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,23 +2896,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2934,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2972,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +3010,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,23 +3048,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-9400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2714,8 +3086,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,28 +3124,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2783,23 +3167,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +3205,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,8 +3225,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2861,8 +3259,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3297,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3335,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3373,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3411,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,23 +3449,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3053,8 +3487,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,8 +3507,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3099,8 +3541,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3579,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,8 +3617,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3195,8 +3655,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,8 +3675,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3241,8 +3709,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3747,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3785,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,31 +3823,37 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>19800</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3369,8 +3861,14 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3401,23 +3899,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,6 +3935,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>ANEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,8 +720,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,8 +761,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,8 +802,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +843,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,26 +862,27 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,8 +942,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,8 +983,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1024,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,25 +1040,26 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>600</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1053,8 +1079,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1062,16 +1091,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-600</v>
       </c>
       <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>-600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1091,8 +1120,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,8 +1139,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1116,16 +1149,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-26600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1145,8 +1178,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1154,11 +1190,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-29100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,16 +1219,19 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1200,8 +1239,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1221,25 +1260,28 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-600</v>
       </c>
       <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>-600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1259,8 +1301,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1297,8 +1342,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,25 +1383,28 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-600</v>
       </c>
       <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>-600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1373,26 +1424,29 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1465,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1547,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,8 +1629,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1572,16 +1641,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>26600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1601,26 +1670,29 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1711,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,26 +1752,29 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,31 +1793,34 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1839,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,26 +1875,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E41" s="3">
         <v>19200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1828,8 +1914,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1866,8 +1955,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1904,8 +1996,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1942,25 +2037,28 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1980,26 +2078,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2119,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2056,8 +2160,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2094,8 +2201,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2132,8 +2242,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,8 +2324,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2219,15 +2338,15 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2365,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,26 +2406,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E54" s="3">
         <v>20500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2447,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,16 +2483,17 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -2371,8 +2501,8 @@
       <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2392,26 +2522,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,26 +2563,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,26 +2604,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,8 +2645,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2544,8 +2686,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2555,12 +2700,12 @@
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3">
         <v>10500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,14 +2721,17 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,26 +2850,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2891,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2838,13 +3005,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>3000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2864,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,26 +3072,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2940,8 +3113,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,26 +3236,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E76" s="3">
         <v>19900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3277,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,31 +3318,34 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,26 +3364,29 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +3405,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,8 +3424,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3265,8 +3463,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,26 +3668,29 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3493,8 +3709,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,8 +3728,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3547,8 +3767,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,8 +3849,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3661,8 +3890,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +3909,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3715,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,20 +4071,23 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>19800</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3855,8 +4100,8 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -3867,8 +4112,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3905,26 +4153,29 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3941,6 +4192,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
   <si>
     <t>ANEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,8 +724,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -764,8 +768,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,8 +812,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +856,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,29 +876,30 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,8 +918,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,8 +962,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,8 +1006,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1050,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,28 +1067,29 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1082,8 +1109,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1091,19 +1121,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-600</v>
       </c>
       <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1153,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,8 +1173,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1152,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-26600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1181,8 +1215,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1190,14 +1227,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,19 +1259,22 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1242,8 +1282,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1263,28 +1303,31 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-600</v>
       </c>
       <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>-600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1304,8 +1347,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1345,8 +1391,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,28 +1435,31 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-600</v>
       </c>
       <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1427,29 +1479,32 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1468,8 +1523,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1567,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1611,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1655,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,8 +1699,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>26600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1673,29 +1743,32 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1787,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,29 +1831,32 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1796,34 +1875,37 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +1924,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +1944,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,29 +1962,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E41" s="3">
         <v>18000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2004,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,8 +2048,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1999,8 +2092,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2040,28 +2136,31 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2081,29 +2180,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
         <v>19000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2224,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2163,8 +2268,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2204,8 +2312,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2245,8 +2356,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2400,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,8 +2444,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2341,15 +2461,15 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2488,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,29 +2532,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E54" s="3">
         <v>19000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2576,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2596,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,19 +2614,20 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2504,8 +2635,8 @@
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2525,29 +2656,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,8 +2700,11 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2575,20 +2712,20 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,29 +2744,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>0</v>
+      <c r="D60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2788,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2689,8 +2832,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2703,12 +2849,12 @@
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3">
         <v>10500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2724,14 +2870,17 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +2920,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +2964,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,29 +3008,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3052,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3072,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3114,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3158,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3008,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>3000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3034,8 +3202,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,29 +3246,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-41300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3290,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3334,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3378,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,29 +3422,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>18900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3466,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,34 +3510,37 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3367,29 +3559,32 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,8 +3603,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,8 +3623,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3466,8 +3665,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3709,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3753,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +3797,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +3841,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,29 +3885,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3712,8 +3929,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,8 +3949,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3770,8 +3991,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4035,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,8 +4079,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3893,8 +4123,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4143,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3951,8 +4185,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4229,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4273,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,8 +4317,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4085,12 +4331,12 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>19800</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4103,8 +4349,8 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4115,8 +4361,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4156,29 +4405,32 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4195,6 +4447,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>ANEB</t>
   </si>
@@ -1443,8 +1443,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-1900</v>
       </c>
       <c r="E26" s="3">
         <v>-1100</v>
@@ -1487,8 +1487,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-1900</v>
       </c>
       <c r="E27" s="3">
         <v>-1100</v>
@@ -1751,8 +1751,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-1900</v>
       </c>
       <c r="E33" s="3">
         <v>-1100</v>
@@ -1839,8 +1839,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-1900</v>
       </c>
       <c r="E35" s="3">
         <v>-1100</v>
@@ -2188,8 +2188,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>17200</v>
       </c>
       <c r="E46" s="3">
         <v>19000</v>
@@ -2752,8 +2752,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -3430,8 +3430,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>17200</v>
       </c>
       <c r="E76" s="3">
         <v>18900</v>
@@ -3567,8 +3567,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-1900</v>
       </c>
       <c r="E81" s="3">
         <v>-1100</v>

--- a/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
   <si>
     <t>ANEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,8 +728,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,8 +775,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,8 +822,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,8 +869,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,32 +890,33 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -921,8 +935,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -965,8 +982,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,8 +1029,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1053,8 +1076,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1068,31 +1094,32 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1112,8 +1139,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1121,22 +1151,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-600</v>
       </c>
       <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>-600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1156,8 +1186,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1174,8 +1207,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1189,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-26600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1218,8 +1252,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,17 +1264,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-29100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1299,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1273,11 +1313,11 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1285,8 +1325,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1306,31 +1346,34 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-600</v>
       </c>
       <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>-600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1350,8 +1393,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1394,8 +1440,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1438,31 +1487,34 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-29100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-600</v>
       </c>
       <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>-600</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1482,32 +1534,35 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1526,8 +1581,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1570,8 +1628,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1614,8 +1675,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1658,8 +1722,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1702,8 +1769,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1717,16 +1787,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>26600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1746,32 +1816,35 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1863,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1834,32 +1910,35 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,37 +1957,40 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1927,8 +2009,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1945,8 +2030,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1963,32 +2049,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E41" s="3">
         <v>16500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2007,8 +2094,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2051,8 +2141,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2095,8 +2188,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2139,31 +2235,34 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2183,32 +2282,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E46" s="3">
         <v>17200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2227,8 +2329,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2271,8 +2376,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2315,8 +2423,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2359,8 +2470,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2403,8 +2517,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2447,8 +2564,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2464,15 +2584,15 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,8 +2611,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2535,32 +2658,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E54" s="3">
         <v>17200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,8 +2705,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2597,8 +2726,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2615,22 +2745,23 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2638,8 +2769,8 @@
       <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2659,32 +2790,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,32 +2837,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2747,32 +2884,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2791,8 +2931,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2835,8 +2978,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2852,12 +2998,12 @@
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3">
         <v>10500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,14 +3019,17 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2923,8 +3072,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2967,8 +3119,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3011,32 +3166,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3213,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3073,8 +3234,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3117,8 +3279,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3161,8 +3326,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3179,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>3000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3205,8 +3373,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3249,32 +3420,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-43100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-41300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-40200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3293,8 +3467,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3337,8 +3514,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3381,8 +3561,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3425,32 +3608,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E76" s="3">
         <v>17200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3655,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3513,37 +3702,40 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3562,32 +3754,35 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3606,8 +3801,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3624,8 +3822,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3668,8 +3867,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3712,8 +3914,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3756,8 +3961,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3800,8 +4008,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3844,8 +4055,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3888,32 +4102,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3932,8 +4149,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3950,8 +4170,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3994,8 +4215,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4038,8 +4262,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4082,8 +4309,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4126,8 +4356,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4144,8 +4377,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4188,8 +4422,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4232,8 +4469,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4276,8 +4516,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4320,13 +4563,16 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -4334,12 +4580,12 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>19800</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4352,8 +4598,8 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4364,8 +4610,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4408,32 +4657,35 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4450,6 +4702,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="92">
   <si>
     <t>ANEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -731,8 +732,14 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,8 +785,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -825,8 +838,14 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +891,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,38 +916,40 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,8 +965,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -985,8 +1018,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,8 +1071,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1079,8 +1124,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,38 +1146,40 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,8 +1195,14 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1151,29 +1210,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1189,8 +1248,14 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1208,8 +1273,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1226,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-26600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1255,8 +1322,14 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1264,23 +1337,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-29100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1302,37 +1375,43 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1349,38 +1428,44 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-29100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,8 +1481,14 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1443,8 +1534,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1490,38 +1587,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-29100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1537,38 +1640,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-29100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,8 +1693,14 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1631,8 +1746,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1678,8 +1799,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1725,8 +1852,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1772,8 +1905,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1790,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>26600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1819,38 +1958,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-29100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1866,8 +2011,14 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1913,38 +2064,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-29100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,43 +2117,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2175,14 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +2200,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2050,38 +2221,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F41" s="3">
         <v>14500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>16500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>18000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>19200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>20000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2270,14 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2144,8 +2323,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2191,8 +2376,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2238,37 +2429,43 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>1000</v>
       </c>
       <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2285,38 +2482,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F46" s="3">
         <v>15600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>17200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>19000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>20500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>21700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,8 +2535,14 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2379,8 +2588,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2426,8 +2641,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2473,8 +2694,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2520,8 +2747,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2567,8 +2800,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2587,18 +2826,18 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2614,8 +2853,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2661,38 +2906,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F54" s="3">
         <v>15600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>17200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>19000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>20500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>21700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,8 +2959,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2727,8 +2984,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2746,37 +3005,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>100</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2793,22 +3054,28 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2817,14 +3084,14 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,37 +3107,43 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2887,38 +3160,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2934,8 +3213,14 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2981,8 +3266,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3001,15 +3292,15 @@
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
         <v>10500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3022,14 +3313,20 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3075,8 +3372,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,8 +3425,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3169,38 +3478,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3216,8 +3531,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3235,8 +3556,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3282,8 +3605,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3329,8 +3658,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3350,17 +3685,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>3000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3000</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3376,8 +3711,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3423,38 +3764,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-45500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-43100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-41300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-40200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-38600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3817,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3517,8 +3870,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3564,8 +3923,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3611,38 +3976,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F76" s="3">
         <v>15100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>17200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>18900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>19900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>21400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-9400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3658,8 +4029,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3705,43 +4082,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3757,38 +4140,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-29100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3804,8 +4193,14 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3823,8 +4218,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3870,8 +4267,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3917,8 +4320,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3964,8 +4373,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4011,8 +4426,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4058,8 +4479,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4105,38 +4532,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4152,8 +4585,14 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4171,8 +4610,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4218,8 +4659,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4265,8 +4712,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4312,8 +4765,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4359,8 +4818,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4378,8 +4843,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4425,8 +4892,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4472,8 +4945,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4519,8 +4998,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4566,32 +5051,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>19800</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4601,11 +5092,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -4613,8 +5104,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4660,38 +5157,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>16700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4705,6 +5208,12 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>ANEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -738,8 +739,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,8 +795,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -844,8 +851,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,8 +907,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,41 +931,42 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -971,8 +985,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,8 +1041,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,8 +1097,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1153,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,40 +1174,41 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>600</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1201,8 +1228,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1210,31 +1240,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-600</v>
       </c>
       <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>-600</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1254,8 +1284,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,8 +1308,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1299,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-26600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1328,8 +1362,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1337,26 +1374,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-29100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,8 +1418,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,8 +1432,8 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1401,11 +1441,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1413,8 +1453,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1434,40 +1474,43 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-29100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-600</v>
       </c>
       <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>-600</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1487,8 +1530,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1540,8 +1586,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,40 +1642,43 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-29100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-600</v>
       </c>
       <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>-600</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1646,41 +1698,44 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-29100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1699,8 +1754,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1810,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1805,8 +1866,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1922,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,8 +1978,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1935,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>26600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1964,41 +2034,44 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-29100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2090,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,41 +2146,44 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-29100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,46 +2202,49 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2181,8 +2263,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2287,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,41 +2309,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E41" s="3">
         <v>16400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,8 +2363,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,8 +2419,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2382,8 +2475,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2435,40 +2531,43 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2488,41 +2587,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E46" s="3">
         <v>16900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,8 +2643,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2594,8 +2699,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2647,8 +2755,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2700,8 +2811,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2867,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,41 +2923,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,8 +2979,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,41 +3035,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E54" s="3">
         <v>16900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3091,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3115,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,31 +3137,32 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3039,8 +3170,8 @@
       <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>100</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -3060,8 +3191,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3090,11 +3224,11 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3113,41 +3247,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3166,41 +3303,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3359,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3272,38 +3415,41 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
         <v>10500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3319,14 +3465,17 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3527,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3583,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,41 +3639,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +3695,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3719,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3773,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3829,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3691,13 +3859,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>3000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3717,8 +3885,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,41 +3941,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-43100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-41300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-40200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3823,8 +3997,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4053,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4109,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,41 +4165,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E76" s="3">
         <v>15500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4035,8 +4221,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,46 +4277,49 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4146,41 +4338,44 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-29100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,8 +4394,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,8 +4418,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4273,8 +4472,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4528,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4584,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4640,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4696,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,41 +4752,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-2000</v>
       </c>
       <c r="F89" s="3">
         <v>-2000</v>
       </c>
       <c r="G89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4591,8 +4808,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,8 +4832,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4665,8 +4886,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +4942,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,8 +4998,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4824,8 +5054,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,8 +5078,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4898,8 +5132,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5188,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5244,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,22 +5300,25 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -5080,12 +5326,12 @@
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>19800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5098,8 +5344,8 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5110,8 +5356,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5163,41 +5412,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5214,6 +5466,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANEB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>ANEB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -742,8 +743,11 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,8 +802,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,8 +861,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,8 +920,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,44 +945,45 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -988,8 +1002,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1044,8 +1061,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1100,8 +1120,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1156,8 +1179,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1175,43 +1201,44 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>600</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1231,8 +1258,11 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1240,34 +1270,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-600</v>
       </c>
       <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>-600</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
@@ -1287,8 +1317,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1309,8 +1342,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1336,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-26600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1365,8 +1399,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1374,29 +1411,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-29100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1421,8 +1458,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1435,8 +1475,8 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1444,11 +1484,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1456,8 +1496,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1477,43 +1517,46 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-29100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-600</v>
       </c>
       <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>-600</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1533,8 +1576,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1589,8 +1635,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1645,43 +1694,46 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-29100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-600</v>
       </c>
       <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>-600</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1701,44 +1753,47 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-29100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1812,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1813,8 +1871,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1869,8 +1930,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1925,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1981,8 +2048,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1990,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2008,16 +2078,16 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>26600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -2037,44 +2107,47 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-29100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,8 +2166,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2149,44 +2225,47 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-29100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2205,49 +2284,52 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2266,8 +2348,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2288,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2310,44 +2396,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E41" s="3">
         <v>14200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2453,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2422,8 +2512,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2478,8 +2571,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2534,43 +2630,46 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2590,44 +2689,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E46" s="3">
         <v>14400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2646,8 +2748,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2702,8 +2807,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2758,8 +2866,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2814,8 +2925,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2870,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2926,8 +3043,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2952,18 +3072,18 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,8 +3102,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3038,44 +3161,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E54" s="3">
         <v>14400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3220,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3116,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3138,34 +3268,35 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3173,8 +3304,8 @@
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>100</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -3194,8 +3325,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3227,11 +3361,11 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3250,44 +3384,47 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3306,44 +3443,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3362,8 +3502,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3418,8 +3561,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3444,15 +3590,15 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
         <v>10500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,14 +3614,17 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3530,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3586,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3642,44 +3797,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3698,8 +3856,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3720,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3776,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3832,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3862,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>3000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3888,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3944,44 +4115,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-48100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-43100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-41300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-40200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,8 +4174,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4056,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4112,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4168,44 +4351,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E76" s="3">
         <v>12900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4224,8 +4410,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4280,49 +4469,52 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4341,44 +4533,47 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-29100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4397,8 +4592,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4419,8 +4617,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4475,8 +4674,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4531,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4587,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4643,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4699,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4755,44 +4969,47 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2000</v>
       </c>
       <c r="G89" s="3">
         <v>-2000</v>
       </c>
       <c r="H89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4811,8 +5028,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4833,8 +5053,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4889,8 +5110,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4945,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5001,8 +5228,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5057,8 +5287,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5079,8 +5312,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5135,8 +5369,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5191,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5247,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5303,25 +5546,28 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -5329,12 +5575,12 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>19800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5347,8 +5593,8 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5359,8 +5605,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5415,44 +5664,47 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5469,6 +5721,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
